--- a/ch_03_ai_powered_data_entry/ch_03.xlsx
+++ b/ch_03_ai_powered_data_entry/ch_03.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27521"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\excel-power-tools-book\ch_03_ai_powered_data_entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563E2818-2E74-4DBC-ABC7-11B0B997D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0236EE-61B6-4C86-AECF-91E158DF8E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forecast-sheet" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -256,21 +256,6 @@
   <si>
     <t>Low</t>
   </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
 </sst>
 </file>
 
@@ -278,20 +263,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -317,37 +302,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5DC7F689-A1E7-4919-97BB-6FEC4C104940}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     </dxf>
     <dxf>
       <font>
@@ -358,11 +332,11 @@
         <vertAlign val="baseline"/>
         <sz val="26"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -373,7 +347,22 @@
         <vertAlign val="baseline"/>
         <sz val="26"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="26"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -387,7 +376,7 @@
         <vertAlign val="baseline"/>
         <sz val="26"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -401,7 +390,7 @@
         <vertAlign val="baseline"/>
         <sz val="26"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -415,7 +404,7 @@
         <vertAlign val="baseline"/>
         <sz val="26"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -2958,11 +2947,9 @@
     <v>72</v>
     <v>634.38990000000001</v>
     <v>315.62</v>
-    <v>1.2158</v>
-    <v>-6.2</v>
-    <v>-1.1360000000000001E-3</v>
-    <v>-1.0104999999999999E-2</v>
-    <v>-0.69</v>
+    <v>1.2153</v>
+    <v>13.265000000000001</v>
+    <v>2.1596999999999998E-2</v>
     <v>USD</v>
     <v>Netflix, Inc. is a provider of entertainment services. The Company acquires, licenses and produces content, including original programming. The Company provides paid memberships in approximately 190 countries offering television (TV) series, films and games across a wide variety of genres and languages. Its members can play, pause and resume watching as much as they want, anytime, anywhere, and can change their plans at any time. The Company offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes and mobile devices. The Company also has agreements with various cable, satellite and telecommunications operators to make its service available through TV set-top boxes. The Company's paid plans range from the United States dollar equivalent of $1 to $28 per month, and pricing on its extra member sub accounts range from the United States dollar equivalent of $2 to $8 per month.</v>
     <v>13000</v>
@@ -2970,25 +2957,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>615</v>
+    <v>628.16</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.999852568748</v>
+    <v>45385.727529339842</v>
     <v>336</v>
-    <v>601.59</v>
-    <v>262827900000</v>
+    <v>612.13499999999999</v>
+    <v>271545830010</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>614.99</v>
-    <v>51.048200000000001</v>
-    <v>613.53</v>
-    <v>607.33000000000004</v>
-    <v>606.64</v>
+    <v>612.59</v>
+    <v>51.104700000000001</v>
+    <v>614.21</v>
+    <v>627.47500000000002</v>
     <v>432759600</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>3708803</v>
-    <v>3023924</v>
+    <v>1386420</v>
+    <v>2998516</v>
     <v>1997</v>
   </rv>
   <rv s="11">
@@ -3032,11 +3018,9 @@
     <v>72</v>
     <v>123.74</v>
     <v>78.730900000000005</v>
-    <v>1.4200999999999999</v>
-    <v>1.38</v>
-    <v>2.3699999999999997E-3</v>
-    <v>1.1407E-2</v>
-    <v>0.28999999999999998</v>
+    <v>1.3846000000000001</v>
+    <v>-1.8447</v>
+    <v>-1.502E-2</v>
     <v>USD</v>
     <v>The Walt Disney Company is a diversified worldwide entertainment company. The Company's segments include Entertainment, Sports and Experiences. The Entertainment segment generally encompasses the Company’s non-sports focused global film, television and direct-to-consumer (DTC) video streaming content production and distribution activities. Its line of business includes Linear Networks, Direct-to-Consumer, and Content Sales/Licensing. The Sports segment generally encompasses the Company’s sports-focused global television and DTC video streaming content production and distribution activities. Its line of business includes ESPN and Star. Experiences segment includes Parks and Experiences and Consumer Products. Parks and Experiences consists of Walt Disney World Resort in Florida, Disneyland Resort in California, Disney Cruise Line, Disney Vacation Club, and Disneyland Paris, among others. Consumer Products includes licensing of its trade names, characters, visual, literary and other IPs.</v>
     <v>225000</v>
@@ -3044,26 +3028,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>500 S Buena Vista St, BURBANK, CA, 91521-0001 US</v>
-    <v>123.74</v>
+    <v>123.6902</v>
     <v>342</v>
     <v>Media &amp; Publishing</v>
     <v>Stock</v>
-    <v>45379.999960740628</v>
+    <v>45385.727538032028</v>
     <v>343</v>
-    <v>121.2</v>
-    <v>224445682160</v>
+    <v>120.69</v>
+    <v>221905718641</v>
     <v>THE WALT DISNEY COMPANY</v>
     <v>THE WALT DISNEY COMPANY</v>
-    <v>121.25</v>
-    <v>74.307000000000002</v>
-    <v>120.98</v>
-    <v>122.36</v>
-    <v>122.65</v>
+    <v>122.51</v>
+    <v>75.437200000000004</v>
+    <v>122.82</v>
+    <v>120.9753</v>
     <v>1834306000</v>
     <v>DIS</v>
     <v>THE WALT DISNEY COMPANY (XNYS:DIS)</v>
-    <v>15367421</v>
-    <v>10544420</v>
+    <v>6551744</v>
+    <v>10929217</v>
     <v>2018</v>
   </rv>
   <rv s="11">
@@ -3103,11 +3086,9 @@
     <v>72</v>
     <v>15.199</v>
     <v>9.4920000000000009</v>
-    <v>1.6411</v>
-    <v>0.22</v>
-    <v>-1.5060000000000002E-3</v>
-    <v>1.6845000000000002E-2</v>
-    <v>-0.02</v>
+    <v>1.6169</v>
+    <v>0.33500000000000002</v>
+    <v>2.5226000000000002E-2</v>
     <v>USD</v>
     <v>Ford Motor Company is an automobile company. The Company develops and delivers Ford trucks, sport utility vehicles, commercial vans and cars and Lincoln luxury vehicles, along with connected services. Its Ford Blue segment includes the sale of Ford and Lincoln internal combustion engine (ICE) and hybrid vehicles, service parts, accessories, and digital services for retail customers. Ford Model e segment primarily includes the sale of electric vehicles, service parts, accessories, and digital services. Ford Pro primarily includes the sale of Ford and Lincoln vehicles, service parts, accessories, and services for commercial, government, and rental customers. Ford Next segment primarily includes expenses and investments for emerging business initiatives aimed at creating value for Ford in vehicle-adjacent market segments. Ford Credit segment is comprised of the Ford Credit business on a consolidated basis, which is primarily vehicle-related financing and leasing activities.</v>
     <v>177000</v>
@@ -3115,26 +3096,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One American Road, DEARBORN, MI, 48126-2701 US</v>
-    <v>13.3</v>
+    <v>13.68</v>
     <v>348</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45379.999853876565</v>
+    <v>45385.727498888278</v>
     <v>349</v>
-    <v>13.05</v>
-    <v>52769850000</v>
+    <v>13.23</v>
+    <v>54355232575</v>
     <v>FORD MOTOR COMPANY</v>
     <v>FORD MOTOR COMPANY</v>
-    <v>13.07</v>
-    <v>12.106299999999999</v>
-    <v>13.06</v>
+    <v>13.234999999999999</v>
+    <v>12.3102</v>
     <v>13.28</v>
-    <v>13.26</v>
-    <v>3973633000</v>
+    <v>13.615</v>
+    <v>3992305000</v>
     <v>F</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
-    <v>61846366</v>
-    <v>48201854</v>
+    <v>34520376</v>
+    <v>49442825</v>
     <v>1919</v>
   </rv>
   <rv s="11">
@@ -3156,13 +3136,11 @@
     <v>71</v>
     <v>Finance</v>
     <v>72</v>
-    <v>155.19999999999999</v>
-    <v>100.28</v>
-    <v>1.0495000000000001</v>
-    <v>0.32</v>
-    <v>-7.224E-4</v>
-    <v>2.1060000000000002E-3</v>
-    <v>-0.11</v>
+    <v>157</v>
+    <v>102.38</v>
+    <v>1.0511999999999999</v>
+    <v>0.19</v>
+    <v>1.219E-3</v>
     <v>USD</v>
     <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
     <v>182502</v>
@@ -3170,25 +3148,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>152.66999999999999</v>
+    <v>156.27500000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45379.999737753904</v>
+    <v>45385.727532500001</v>
     <v>352</v>
-    <v>151.33000000000001</v>
-    <v>1884055000000</v>
+    <v>154.13210000000001</v>
+    <v>1929074000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>152</v>
-    <v>26.185600000000001</v>
-    <v>151.94</v>
-    <v>152.26</v>
-    <v>152.15</v>
+    <v>154.97999999999999</v>
+    <v>26.8629</v>
+    <v>155.87</v>
+    <v>156.06</v>
     <v>12433000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>21105628</v>
-    <v>25821393</v>
+    <v>8118295</v>
+    <v>25506047</v>
     <v>2015</v>
   </rv>
   <rv s="11">
@@ -3481,9 +3458,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3504,7 +3479,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3543,9 +3517,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3567,7 +3539,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3817,7 +3788,7 @@
       <v t="s">Image</v>
       <v t="s">Description</v>
     </a>
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3828,16 +3799,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3864,7 +3832,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3875,16 +3843,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -4659,19 +4624,13 @@
       <v>6</v>
       <v>5</v>
       <v>4</v>
-      <v>9</v>
-      <v>9</v>
-      <v>11</v>
     </spb>
     <spb s="17">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="2">
       <v>6</v>
@@ -4711,9 +4670,6 @@
       <v>6</v>
       <v>5</v>
       <v>4</v>
-      <v>9</v>
-      <v>9</v>
-      <v>11</v>
     </spb>
     <spb s="21">
       <v>Powered by Refinitiv</v>
@@ -4998,9 +4954,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -5008,9 +4961,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -5045,9 +4995,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -5130,6 +5077,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3727BBF1-1463-43B6-802B-57007BE576A2}" name="housing_starts" displayName="housing_starts" ref="A1:B133" totalsRowShown="0">
+  <autoFilter ref="A1:B133" xr:uid="{3727BBF1-1463-43B6-802B-57007BE576A2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{5162A100-B684-4772-A99F-00D65038D933}" name="date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{FA6FD9E1-9351-4347-96F8-548C7ABB3FD3}" name="housing_starts" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9277178-9986-4E20-AC13-84A582FD00EF}" name="countries" displayName="countries" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{DC5C4A76-D68E-43F7-87B7-48DA07E30951}"/>
   <tableColumns count="4">
@@ -5148,18 +5106,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8AB7CCF-6B82-4F71-B7CC-565BC452E406}" name="companies" displayName="companies" ref="A1:D5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B8AB7CCF-6B82-4F71-B7CC-565BC452E406}" name="companies" displayName="companies" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:D5" xr:uid="{35B40EDE-12BC-48BC-A02A-73DE3659EE94}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9343A81E-7465-4357-B4A6-9D97A38896A2}" name="company" dataDxfId="5" dataCellStyle="Normal 2"/>
     <tableColumn id="2" xr3:uid="{84CDB630-4DBA-42BE-8924-01901733F0C8}" name="Industry" dataDxfId="4" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">_FV(companies[[#This Row],[company]],"Industry")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{159C3D11-988C-4170-B843-FE6B0CBC1045}" name="High" dataDxfId="1" dataCellStyle="Normal 2">
+    <tableColumn id="3" xr3:uid="{159C3D11-988C-4170-B843-FE6B0CBC1045}" name="High" dataDxfId="3" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">_FV(companies[[#This Row],[company]],"High")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C2DF8178-4E6A-402A-B699-E0A0D81AC679}" name="Low" dataDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="4" xr3:uid="{C2DF8178-4E6A-402A-B699-E0A0D81AC679}" name="Low" dataDxfId="2" dataCellStyle="Normal 2">
       <calculatedColumnFormula array="1">_FV(companies[[#This Row],[company]],"Low")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5178,39 +5136,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5243,9 +5201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5278,6 +5253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5339,13 +5331,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -5354,6 +5339,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5418,11 +5410,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5432,13 +5444,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -6507,6 +6520,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -6519,16 +6535,16 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.4" x14ac:dyDescent="1"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <cols>
-    <col min="1" max="1" width="31.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6542,7 +6558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="1">
+    <row r="2" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A2" s="3" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -6559,7 +6575,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="1">
+    <row r="3" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A3" s="3" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
@@ -6576,7 +6592,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="1">
+    <row r="4" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A4" s="3" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
@@ -6593,19 +6609,19 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="1">
+    <row r="5" spans="1:4" x14ac:dyDescent="1.05">
       <c r="A5" s="3" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="B5" s="4" t="str" cm="1">
+      <c r="B5" s="3" t="str" cm="1">
         <f t="array" ref="B5">_FV(countries[[#This Row],[country]],"Abbreviation")</f>
         <v>US</v>
       </c>
-      <c r="C5" s="4" t="e" cm="1" vm="11">
+      <c r="C5" s="3" t="e" cm="1" vm="11">
         <f t="array" ref="C5">_FV(countries[[#This Row],[country]],"Capital/Major City",TRUE)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="4" t="e" cm="1" vm="12">
+      <c r="D5" s="3" t="e" cm="1" vm="12">
         <f t="array" ref="D5">_FV(countries[[#This Row],[country]],"Image")</f>
         <v>#VALUE!</v>
       </c>
@@ -6622,97 +6638,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2797C59-B0E9-4F28-B858-465EA11DA09B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="83.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.1328125" customWidth="1"/>
+    <col min="2" max="2" width="50.59765625" customWidth="1"/>
+    <col min="3" max="4" width="17.1328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.4" x14ac:dyDescent="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="34.15" x14ac:dyDescent="1.05">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="33.4" x14ac:dyDescent="1">
-      <c r="A2" s="5" t="e" vm="13">
+    <row r="2" spans="1:4" ht="34.15" x14ac:dyDescent="1.05">
+      <c r="A2" s="3" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="B2" s="5" t="str" cm="1">
+      <c r="B2" s="3" t="str" cm="1">
         <f t="array" ref="B2">_FV(companies[[#This Row],[company]],"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="C2" s="8" cm="1">
+      <c r="C2" s="6" cm="1">
         <f t="array" ref="C2">_FV(companies[[#This Row],[company]],"High")</f>
-        <v>615</v>
-      </c>
-      <c r="D2" s="8" cm="1">
+        <v>628.16</v>
+      </c>
+      <c r="D2" s="6" cm="1">
         <f t="array" ref="D2">_FV(companies[[#This Row],[company]],"Low")</f>
-        <v>601.59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="33.4" x14ac:dyDescent="1">
-      <c r="A3" s="5" t="e" vm="14">
+        <v>612.13499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.15" x14ac:dyDescent="1.05">
+      <c r="A3" s="3" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="B3" s="5" t="str" cm="1">
+      <c r="B3" s="3" t="str" cm="1">
         <f t="array" ref="B3">_FV(companies[[#This Row],[company]],"Industry")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="C3" s="8" cm="1">
+      <c r="C3" s="6" cm="1">
         <f t="array" ref="C3">_FV(companies[[#This Row],[company]],"High")</f>
-        <v>123.74</v>
-      </c>
-      <c r="D3" s="8" cm="1">
+        <v>123.6902</v>
+      </c>
+      <c r="D3" s="6" cm="1">
         <f t="array" ref="D3">_FV(companies[[#This Row],[company]],"Low")</f>
-        <v>121.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="33.4" x14ac:dyDescent="1">
-      <c r="A4" s="5" t="e" vm="15">
+        <v>120.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34.15" x14ac:dyDescent="1.05">
+      <c r="A4" s="3" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="B4" s="5" t="str" cm="1">
+      <c r="B4" s="3" t="str" cm="1">
         <f t="array" ref="B4">_FV(companies[[#This Row],[company]],"Industry")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
-      <c r="C4" s="8" cm="1">
+      <c r="C4" s="6" cm="1">
         <f t="array" ref="C4">_FV(companies[[#This Row],[company]],"High")</f>
-        <v>13.3</v>
-      </c>
-      <c r="D4" s="8" cm="1">
+        <v>13.68</v>
+      </c>
+      <c r="D4" s="6" cm="1">
         <f t="array" ref="D4">_FV(companies[[#This Row],[company]],"Low")</f>
-        <v>13.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33.4" x14ac:dyDescent="1">
-      <c r="A5" s="5" t="e" vm="16">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.15" x14ac:dyDescent="1.05">
+      <c r="A5" s="3" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="B5" s="5" t="str" cm="1">
+      <c r="B5" s="3" t="str" cm="1">
         <f t="array" ref="B5">_FV(companies[[#This Row],[company]],"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="C5" s="8" cm="1">
+      <c r="C5" s="6" cm="1">
         <f t="array" ref="C5">_FV(companies[[#This Row],[company]],"High")</f>
-        <v>152.66999999999999</v>
-      </c>
-      <c r="D5" s="8" cm="1">
+        <v>156.27500000000001</v>
+      </c>
+      <c r="D5" s="6" cm="1">
         <f t="array" ref="D5">_FV(companies[[#This Row],[company]],"Low")</f>
-        <v>151.33000000000001</v>
+        <v>154.13210000000001</v>
       </c>
     </row>
   </sheetData>
